--- a/biology/Biologie cellulaire et moléculaire/Variant_Call_Format/Variant_Call_Format.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Variant_Call_Format/Variant_Call_Format.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Modèle:Variant Call Format[Quoi ?]
 Le Variant Call Format (abrégé par VCF) est le format d'un fichier texte utilisé en bioinformatique pour stocker les variations de séquences génétiques. Le format VCF a été développé avec l'avènement des projets de génotypage et de séquençage de l'ADN à grande échelle, tels que le  1000 Genomes Project.
 Les formats préexistants pour stocker les séquences génétiques, tels que le format général des caractéristiques (GFF), conservaient des données redondantes car partagées entre les génomes. Le format VCF permet de ne stocker que la différence ou l'absence de différence par rapport à un génome de référence.
-La norme est actuellement la version 4.3[1],[2], et le format n'est aujourd'hui plus utilisé par le 1000 Genomes Project. Il existe également un format étendu Genomic VCF (gVCF), qui comprend des informations supplémentaires sur les « blocs » qui correspondent à la référence et à leurs qualités[3]. Un ensemble d'outils est également disponible pour l'édition et la manipulation des fichiers[4],[5].
+La norme est actuellement la version 4.3 et le format n'est aujourd'hui plus utilisé par le 1000 Genomes Project. Il existe également un format étendu Genomic VCF (gVCF), qui comprend des informations supplémentaires sur les « blocs » qui correspondent à la référence et à leurs qualités. Un ensemble d'outils est également disponible pour l'édition et la manipulation des fichiers,.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Exemple</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">##fileformat=VCFv4.3
 ##fileDate=20090805
@@ -569,7 +583,9 @@
           <t>En-tête d'un fichier VCF</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'en-tête commence le fichier et fournit des métadonnées décrivant le corps du fichier. Les lignes d'en-tête sont indiquées comme commençant par# . Les mots-clés spéciaux dans l'en-tête sont indiqués par ## . Les mots clés recommandés incluent fileformat, fileDate et reference.
 L'en-tête contient des mots-clés qui décrivent éventuellement sémantiquement et syntaxiquement les champs utilisés 
@@ -601,7 +617,9 @@
           <t>Colonnes d'un fichier VCF</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps du VCF suit l'en-tête, et est séparé par une tabulation en 8 colonnes obligatoires et un nombre illimité de colonnes optionnelles qui peuvent être utilisées pour enregistrer d'autres informations sur le(s) échantillon(s). Lorsque des colonnes supplémentaires sont utilisées, la première colonne facultative est utilisée pour décrire le format des données dans les colonnes suivantes.
 </t>
@@ -632,9 +650,11 @@
           <t>Champs de la section INFO fréquemment utilisés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les clés arbitraires sont autorisées, bien que les sous-champs suivants soient réservés (mais facultatifs)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les clés arbitraires sont autorisées, bien que les sous-champs suivants soient réservés (mais facultatifs) :
 Tous les autres champs d'informations sont définis dans l'en-tête .vcf.
 </t>
         </is>
@@ -664,7 +684,9 @@
           <t>Champs de la section FORMAT fréquemment utilisés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous les autres champs de format sont définis dans l'en-tête .vcf.
 </t>
